--- a/e4e6/Uncleaned Data/US_Tax_Long.xlsx
+++ b/e4e6/Uncleaned Data/US_Tax_Long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e6/Uncleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B629D38-CB9A-A744-95D9-6A82D8D638AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC2DC6-9AC3-9343-A0C7-48D14E1E3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{7BD33C87-F9EC-C446-AFFE-D0106CA1C38B}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Social Insurance Taxes -  percent GDP</t>
+    <t>Income Taxes</t>
   </si>
   <si>
-    <t>Income Taxes -  percent GDP</t>
+    <t>Payroll Taxes</t>
   </si>
   <si>
-    <t>Ad valorem Taxes -  percent GDP</t>
+    <t>Excise</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>

--- a/e4e6/Uncleaned Data/US_Tax_Long.xlsx
+++ b/e4e6/Uncleaned Data/US_Tax_Long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e6/Uncleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC2DC6-9AC3-9343-A0C7-48D14E1E3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CE2669-648E-554B-AC5C-9862F4720B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{7BD33C87-F9EC-C446-AFFE-D0106CA1C38B}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>Payroll Taxes</t>
   </si>
   <si>
-    <t>Excise</t>
+    <t>Excise and Sales</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
